--- a/music.xlsx
+++ b/music.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\root\oraclesMusicSFX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B55BA4B-0D49-4060-92E8-D6EF7030B8C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7E48A4-E660-4B58-83F4-25DF745ABA20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="music" sheetId="1" r:id="rId1"/>
@@ -7795,13 +7795,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L105"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="9.140625" style="3"/>
     <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
@@ -13790,7 +13790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8578269-A44D-414B-ADF3-9F05A827EC03}">
   <dimension ref="A1:I954"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
